--- a/dataset/evaluation_Dataset.xlsx
+++ b/dataset/evaluation_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1BFD2E-274C-4B5C-B6EB-D404927E1630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1F7573-5616-4B48-9924-2D9675385BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3F3BC1B-72CB-4EE0-91D9-385962C7A5B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="144">
   <si>
     <t>.sol File Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -359,26 +359,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Pot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pot.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MockChainlinkOracle.sol</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>mul</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>117-119</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>23kb</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -427,14 +411,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>unlockableBalanceOf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>519-533</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RevoFarming.sol</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -443,9 +419,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>getAllPools</t>
-  </si>
-  <si>
     <t>296-302</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -479,22 +452,6 @@
   </si>
   <si>
     <t>90-96</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10kb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vat.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>106-110</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -631,6 +588,38 @@
   </si>
   <si>
     <t xml:space="preserve">SV; roundId, latestRoundDataShouldRevert, entry.updatedAt </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GV : block.timestamp
+LV : _savedPreviousUpdatedTimestamp, _poolInterval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : rounds[id].tokenRate, ruounds[id].totalReserve, rounds[id].tokenRate
+LV : id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>535-557 (function call : 519-532)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GV : block.timestamp
+SV : _locks[account].tokenAmount, _locks[account].hardLockUntil, _locks[account].tokenAmount, _balances[account]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAllPools</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GV : block.timestamp
+SV : info.lastInteractionSecond, info.remainingVestingSeconds, info.remainingPayout</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1046,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7D6AF4-6C19-43AE-82FD-51AF84114A54}">
-  <dimension ref="B2:J29"/>
+  <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1074,16 +1063,16 @@
         <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -1109,7 +1098,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1135,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
@@ -1155,7 +1144,7 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
@@ -1169,7 +1158,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -1181,7 +1170,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1207,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1221,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -1233,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1259,7 +1248,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1285,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
@@ -1311,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
@@ -1337,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1354,7 +1343,7 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1363,7 +1352,7 @@
         <v>3</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
@@ -1389,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
@@ -1397,7 +1386,7 @@
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -1415,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1432,7 +1421,7 @@
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -1441,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1458,7 +1447,7 @@
         <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G17">
         <v>9</v>
@@ -1467,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
@@ -1481,7 +1470,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F18" t="s">
         <v>70</v>
@@ -1493,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1519,7 +1508,7 @@
         <v>7</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1545,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
@@ -1553,13 +1542,13 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
         <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -1568,143 +1557,145 @@
         <v>3</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>65</v>
       </c>
       <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
         <v>92</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C24" t="s">
         <v>93</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D24" t="s">
         <v>94</v>
       </c>
-      <c r="F22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" t="s">
-        <v>89</v>
-      </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>139</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" t="s">
         <v>97</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="26" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
         <v>98</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D26" t="s">
         <v>99</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E26" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="F26" t="s">
         <v>101</v>
       </c>
-      <c r="D26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" t="s">
-        <v>104</v>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" t="s">
         <v>105</v>
-      </c>
-      <c r="D27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/evaluation_Dataset.xlsx
+++ b/dataset/evaluation_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1F7573-5616-4B48-9924-2D9675385BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341A2DFD-2132-473A-8D1E-2703812A9F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3F3BC1B-72CB-4EE0-91D9-385962C7A5B8}"/>
   </bookViews>
@@ -36,238 +36,238 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="169">
   <si>
     <t>.sol File Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Contract Name </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Function Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AloeBlend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>_earmarkSomeForMaintenance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Amoss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AloeBlend.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Amoss.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>_burn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>453-467</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>537-552</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AOC_BEP.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AOC_BEP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>updateUserInfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>422-436</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ATIDStaking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>127-172</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Balancer.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Balancer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>_addActionBuilderAt</t>
   </si>
   <si>
     <t>79-91</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BitBookStake</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>205-208</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Claim.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Claim</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>getCurrentClaimAmount</t>
   </si>
   <si>
     <t>65-72</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CitrusToken.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BEP20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>transferFrom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>53-60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>용량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>24kb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>17kb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>18kb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>16kb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5kb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9kb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6kb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4kb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7kb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13kb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Core.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Core</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>revokeStableMaster</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>147-163</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CoreVoting</t>
   </si>
   <si>
     <t>CoreVoting.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>quorums</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>38-50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Dai.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Dai</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Original Function Line</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>calculateUpdateInPercentage</t>
   </si>
   <si>
     <t>DapiServer.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DapiServer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>838-854</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>34kb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>22kb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DeltaNeutralPancakeWorker02</t>
@@ -277,368 +277,461 @@
   </si>
   <si>
     <t>392-405</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15kb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EdenToken.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EdenToken</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11kb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GovStakingSotrage.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GovStakingStorage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>updateRewardMultiplier</t>
   </si>
   <si>
     <t>GreenHouse.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>328-344</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GreenHouse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Lock.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Lock</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pending</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>49-63</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Meter_flat.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>43kb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ERC20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>_transfer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>349-361</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>latestRoundData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MockChainlinkOracle.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>23kb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PrivateSale.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PrivateSale</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>getLockedTokens</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>503-505</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PoolKeeper.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PoolKeeper</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>keeperTip</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>235-247</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21kb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>QANX.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>QANX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RevoFarming.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RevoFarming</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>296-302</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ThorusBond.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ThorusBond</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>claimablePayout</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>531-538</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TimeLockPool.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TimeLockPool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>getTotalDeposit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>90-96</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Annotation Targets</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>State Slots</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ByteOp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Target Variable(GV : Global Variable, SV : State Varaible, LV : Local Variable)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GV : block.timestamp, </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>_insertLockedStake</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SV : maintenanceBudget0, maintenanceBudget1 
 LV : earned0, earned1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SV : nextLockedStakeIDMap[_stakerAddress], tailLockedStakeIDMap[_stakerAddress], headLockedStakeIDMap[_stakerAddress], weightedStakes[_stakerAddress], totalWeightedATIDStaked, unweightedStakes[_stakerAddress], totalUnweightedATIDStaked
 LV : _ATIDamount, _stakeWeight, _lockedUntil</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SV : _totalSupply, balances[account] 
 LV : amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SV : actionBuilders
 LV : index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>viewFeePercentage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SV : getPercentage[_from][_to]
 LV : _from, _to</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SV : allowed[_from][msg.sender], balances[_from], balances[_to]
 LV : _amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GV : block.timestamp
 SV : claimedOnce[user], startTime, locktime, claimable[user]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SV : governorMap[msg.sender], _stablecoinList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SV : baseQuorum, _quroms[target][functionSelector]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SV : balancesOf[src], allowance[src][msg.sender], balancesOf[dst]
 LV : wad</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>72-83 (function call : 46-47,48-50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>114-130(function call : 136-152)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LV : initalValue, updatedValue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DeltaNeutralPancakeWorker02.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SV : reinvestPath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SV : allownace[src][spender], balancesOf[from], balancesOf[to] 
 LV : amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>227-240(function call : 373-379)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>_calculateFees</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LV : amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SV : info.rewardMultiplier, totalRewardMultiplier
 LV : oldRate, newRate, passedTime, oldLockPeriod, newLockPeriod, oldAmount, newAmount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>103-120(modifier : 31-33)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GV : block.timsetamp
 SV : _data.total, _data.UnlockedAmounts, _data.pending, startLock, unlockDuration, lockedTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SV : _balances[sender], _balances[recipient]
 LV : amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">SV; roundId, latestRoundDataShouldRevert, entry.updatedAt </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GV : block.timestamp
 LV : _savedPreviousUpdatedTimestamp, _poolInterval</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SV : rounds[id].tokenRate, ruounds[id].totalReserve, rounds[id].tokenRate
 LV : id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>535-557 (function call : 519-532)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>unlock</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GV : block.timestamp
 SV : _locks[account].tokenAmount, _locks[account].hardLockUntil, _locks[account].tokenAmount, _balances[account]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAllPools</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GV : block.timestamp
 SV : info.lastInteractionSecond, info.remainingVestingSeconds, info.remainingPayout</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarArtMarketPlace.sol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarArtMarketplace</t>
+  </si>
+  <si>
+    <t>_removeFromTokens</t>
+  </si>
+  <si>
+    <t>163-176</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dripper.sol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dripper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_availableFunds</t>
+  </si>
+  <si>
+    <t>111-119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GV : block.timestamp
+LV : _balance, _drip.lastCollect, _drip.perBlock,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockupContract.sol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockupContract_c.sol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GV : block.timestamp
+SV : initialAmount, deploymentStartTime, monthsToWaitBeforeUnlock, releaseSchedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OptimisitcRewards.sol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OptimisitcRewards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposeRewards</t>
+  </si>
+  <si>
+    <t>55-72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75-89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GV : block.timestamp
+SV : proposalTime, challengePeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PercentageFeeModel</t>
+  </si>
+  <si>
+    <t>PercentageFeeModel.sol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getEarlyWithdrawFeeAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72-95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : earlyWithdrawFeeOverrideForDeposit[pool][depositID].isOverriden, earlyWithdrawFeeOverrideForDeposit[pool][depositID].fee, earlyWithdrawFeeOverrideForPool[pool].isOverriden, earlyWithdrawFeeOverrideForPool[pool].fee, earlyWithdrawFee
+LV : depositID, withdrawnDepositAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20kb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WASTR.sol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WASTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>withdrawFrom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>211-232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : allowance[from][msg.sender], balanceOf[from]
+LV : value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : _tokens
+LV : tokenId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -653,7 +746,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -682,24 +774,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,18 +1124,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7D6AF4-6C19-43AE-82FD-51AF84114A54}">
-  <dimension ref="B2:J27"/>
+  <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="10" max="10" width="102.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>31</v>
       </c>
@@ -1063,19 +1152,19 @@
         <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="2:10" ht="30.6" customHeight="1">
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -1097,11 +1186,11 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="J3" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="34.799999999999997">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -1123,12 +1212,12 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1143,11 +1232,14 @@
       <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="80.400000000000006" customHeight="1">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -1158,7 +1250,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -1169,25 +1261,25 @@
       <c r="H6">
         <v>7</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
+      <c r="J6" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="43.2" customHeight="1">
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1195,129 +1287,129 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="J7" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="34.799999999999997">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="J8" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="34.799999999999997">
       <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="34.799999999999997">
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>30</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>3</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+      <c r="J10" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="34.799999999999997">
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>26</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J11" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" t="s">
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1325,381 +1417,523 @@
       <c r="H12">
         <v>2</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="34.799999999999997">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="34.799999999999997">
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="34.799999999999997">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
         <v>29</v>
       </c>
-      <c r="F13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13">
+      <c r="F18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18">
         <v>4</v>
       </c>
-      <c r="H13">
+      <c r="H18">
         <v>3</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14">
+      <c r="J18" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="34.799999999999997">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20">
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15">
+      <c r="H20">
         <v>1</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="J20" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17">
-        <v>9</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19">
-        <v>7</v>
-      </c>
-      <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="34.799999999999997">
       <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="34.799999999999997">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="34.799999999999997">
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
         <v>82</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E24" t="s">
         <v>81</v>
       </c>
-      <c r="F21" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21">
+      <c r="F24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24">
         <v>3</v>
       </c>
-      <c r="H21">
+      <c r="H24">
         <v>3</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J24" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="34.799999999999997">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="69.599999999999994">
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="34.799999999999997">
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="34.799999999999997">
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="34.799999999999997">
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22">
+      <c r="F29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="34.799999999999997">
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
         <v>3</v>
       </c>
-      <c r="H22">
+      <c r="J30" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31">
         <v>0</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="34.799999999999997">
+      <c r="B32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32">
         <v>3</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24">
-        <v>4</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" t="s">
-        <v>105</v>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dataset/evaluation_Dataset.xlsx
+++ b/dataset/evaluation_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341A2DFD-2132-473A-8D1E-2703812A9F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD501DAB-7BC9-406F-8486-AAFCC59B71AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3F3BC1B-72CB-4EE0-91D9-385962C7A5B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="170">
   <si>
     <t>.sol File Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,11 +473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SV : _totalSupply, balances[account] 
-LV : amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SV : actionBuilders
 LV : index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,6 +716,15 @@
   <si>
     <t>SV : _tokens
 LV : tokenId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : _totalSupply, _balances[account] 
+LV : amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATIDStaking.sol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1126,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7D6AF4-6C19-43AE-82FD-51AF84114A54}">
   <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1213,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -1244,7 +1248,7 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1270,16 +1274,16 @@
         <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1288,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="34.799999999999997">
@@ -1314,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="34.799999999999997">
@@ -1328,7 +1332,7 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1340,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="34.799999999999997">
@@ -1366,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="34.799999999999997">
@@ -1392,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -1418,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -1444,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="34.799999999999997">
@@ -1461,7 +1465,7 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1470,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -1496,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -1504,7 +1508,7 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
         <v>59</v>
@@ -1522,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="34.799999999999997">
@@ -1530,16 +1534,16 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" t="s">
         <v>143</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>144</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>145</v>
-      </c>
-      <c r="F17" t="s">
-        <v>146</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1548,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="34.799999999999997">
@@ -1565,7 +1569,7 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -1574,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="34.799999999999997">
@@ -1591,7 +1595,7 @@
         <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -1600,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -1614,7 +1618,7 @@
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
         <v>70</v>
@@ -1626,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="34.799999999999997">
@@ -1652,7 +1656,7 @@
         <v>7</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="34.799999999999997">
@@ -1660,13 +1664,13 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" t="s">
         <v>148</v>
       </c>
-      <c r="D22" t="s">
-        <v>149</v>
-      </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -1675,7 +1679,7 @@
         <v>4</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="34.799999999999997">
@@ -1701,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -1715,7 +1719,7 @@
         <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1724,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="34.799999999999997">
@@ -1732,16 +1736,16 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" t="s">
         <v>151</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>152</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>153</v>
-      </c>
-      <c r="F25" t="s">
-        <v>154</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -1750,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="69.599999999999994">
@@ -1758,16 +1762,16 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" t="s">
         <v>158</v>
       </c>
-      <c r="D26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>159</v>
-      </c>
-      <c r="F26" t="s">
-        <v>160</v>
       </c>
       <c r="G26">
         <v>7</v>
@@ -1776,7 +1780,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="34.799999999999997">
@@ -1802,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="34.799999999999997">
@@ -1828,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="34.799999999999997">
@@ -1842,10 +1846,10 @@
         <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -1854,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="34.799999999999997">
@@ -1880,7 +1884,7 @@
         <v>3</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="2:10">
@@ -1908,19 +1912,19 @@
     </row>
     <row r="32" spans="2:10" ht="34.799999999999997">
       <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
         <v>162</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>163</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>164</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>165</v>
-      </c>
-      <c r="F32" t="s">
-        <v>166</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -1929,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/evaluation_Dataset.xlsx
+++ b/dataset/evaluation_Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD501DAB-7BC9-406F-8486-AAFCC59B71AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC2344A-E5F4-492F-939B-F206503CD7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3F3BC1B-72CB-4EE0-91D9-385962C7A5B8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3F3BC1B-72CB-4EE0-91D9-385962C7A5B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,26 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23kb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrivateSale.sol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrivateSale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getLockedTokens</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>503-505</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PoolKeeper.sol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -497,10 +477,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SV : governorMap[msg.sender], _stablecoinList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SV : baseQuorum, _quroms[target][functionSelector]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -575,21 +551,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SV : rounds[id].tokenRate, ruounds[id].totalReserve, rounds[id].tokenRate
-LV : id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>535-557 (function call : 519-532)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>unlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GV : block.timestamp
-SV : _locks[account].tokenAmount, _locks[account].hardLockUntil, _locks[account].tokenAmount, _balances[account]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -725,6 +691,41 @@
   </si>
   <si>
     <t>ATIDStaking.sol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : governorMap[msg.sender], _stablecoinList
+LV : stableMaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32kb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThorusLottery.sol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThorusLottery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isWinning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>708-714</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GV : block.timestamp
+SV : _locks[account].tokenAmount, _locks[account].hardLockUntil, _locks[account].softLockUntil, _locks[account].lastUnlock, _locks[account].unlockPerSec, _balances[account]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : firstWinningNumber, lastWinningNumber, ticketNumbers[ticketIndex], tickets.length
+LV : ticketIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,7 +733,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,6 +751,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -778,7 +803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,6 +818,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,16 +1173,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7D6AF4-6C19-43AE-82FD-51AF84114A54}">
   <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="10" max="10" width="102.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>31</v>
       </c>
@@ -1156,19 +1199,19 @@
         <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="30.6" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -1191,10 +1234,10 @@
         <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="34.799999999999997">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -1217,10 +1260,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
@@ -1243,18 +1286,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="80.400000000000006" customHeight="1">
+    <row r="6" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -1266,24 +1309,24 @@
         <v>7</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="43.2" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1292,10 +1335,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="34.799999999999997">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>36</v>
       </c>
@@ -1318,10 +1361,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="34.799999999999997">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -1332,7 +1375,7 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1344,10 +1387,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="34.799999999999997">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>40</v>
       </c>
@@ -1370,10 +1413,10 @@
         <v>3</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="34.799999999999997">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>39</v>
       </c>
@@ -1396,36 +1439,37 @@
         <v>4</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
         <v>2</v>
       </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="I12" s="3"/>
+      <c r="J12" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>41</v>
       </c>
@@ -1448,10 +1492,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="34.799999999999997">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>38</v>
       </c>
@@ -1465,7 +1509,7 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1474,10 +1518,10 @@
         <v>3</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>57</v>
       </c>
@@ -1500,50 +1544,51 @@
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="34.799999999999997">
+      <c r="I16" s="7"/>
+      <c r="J16" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1552,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="34.799999999999997">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>62</v>
       </c>
@@ -1569,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -1578,10 +1623,10 @@
         <v>3</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="34.799999999999997">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>40</v>
       </c>
@@ -1595,7 +1640,7 @@
         <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -1604,10 +1649,10 @@
         <v>2</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>33</v>
       </c>
@@ -1618,7 +1663,7 @@
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F20" t="s">
         <v>70</v>
@@ -1630,10 +1675,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="34.799999999999997">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>39</v>
       </c>
@@ -1653,24 +1698,24 @@
         <v>7</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="34.799999999999997">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -1679,10 +1724,10 @@
         <v>4</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="34.799999999999997">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>77</v>
       </c>
@@ -1705,10 +1750,10 @@
         <v>2</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -1719,7 +1764,7 @@
         <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1728,24 +1773,24 @@
         <v>3</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="34.799999999999997">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E25" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -1754,24 +1799,24 @@
         <v>2</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="69.599999999999994">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E26" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F26" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G26">
         <v>7</v>
@@ -1780,128 +1825,129 @@
         <v>5</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="34.799999999999997">
-      <c r="B27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="9">
+        <v>3</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
         <v>88</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>89</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
         <v>90</v>
       </c>
-      <c r="F27" t="s">
+      <c r="D29" t="s">
         <v>91</v>
       </c>
-      <c r="G27">
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
         <v>3</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="34.799999999999997">
-      <c r="B28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28">
+      <c r="J29" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B30" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="9">
+        <v>5</v>
+      </c>
+      <c r="H30" s="9">
         <v>4</v>
       </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="34.799999999999997">
-      <c r="B29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="H29">
-        <v>4</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="34.799999999999997">
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
       <c r="J30" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1910,21 +1956,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="34.799999999999997">
+    <row r="32" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F32" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -1933,7 +1979,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/evaluation_Dataset.xlsx
+++ b/dataset/evaluation_Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC2344A-E5F4-492F-939B-F206503CD7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883EFE31-3D6C-401C-9DDB-241814894EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3F3BC1B-72CB-4EE0-91D9-385962C7A5B8}"/>
+    <workbookView xWindow="708" yWindow="1416" windowWidth="21600" windowHeight="11232" xr2:uid="{B3F3BC1B-72CB-4EE0-91D9-385962C7A5B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,11 +453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SV : actionBuilders
-LV : index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>viewFeePercentage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -726,6 +721,11 @@
   <si>
     <t>SV : firstWinningNumber, lastWinningNumber, ticketNumbers[ticketIndex], tickets.length
 LV : ticketIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : actionBuilders
+LV : index, actionBuilder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +733,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1173,16 +1173,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7D6AF4-6C19-43AE-82FD-51AF84114A54}">
   <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="10" max="10" width="102.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>31</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" ht="30.6" customHeight="1">
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" ht="34.799999999999997">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -1260,10 +1260,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
@@ -1286,12 +1286,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" ht="80.400000000000006" customHeight="1">
       <c r="B6" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1312,21 +1312,21 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" ht="43.2" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1335,10 +1335,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="34.799999999999997">
       <c r="B8" t="s">
         <v>36</v>
       </c>
@@ -1355,16 +1355,16 @@
         <v>20</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="34.799999999999997">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1387,10 +1387,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="34.799999999999997">
       <c r="B10" t="s">
         <v>40</v>
       </c>
@@ -1413,10 +1413,10 @@
         <v>3</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="34.799999999999997">
       <c r="B11" t="s">
         <v>39</v>
       </c>
@@ -1439,10 +1439,10 @@
         <v>4</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="34.799999999999997">
       <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
@@ -1466,10 +1466,10 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" t="s">
         <v>41</v>
       </c>
@@ -1492,10 +1492,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="34.799999999999997">
       <c r="B14" t="s">
         <v>38</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1518,10 +1518,10 @@
         <v>3</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" t="s">
         <v>57</v>
       </c>
@@ -1544,15 +1544,15 @@
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>59</v>
@@ -1571,24 +1571,24 @@
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="34.799999999999997">
       <c r="B17" t="s">
         <v>38</v>
       </c>
       <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
         <v>134</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>135</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>136</v>
-      </c>
-      <c r="F17" t="s">
-        <v>137</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="34.799999999999997">
       <c r="B18" t="s">
         <v>62</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -1623,10 +1623,10 @@
         <v>3</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="34.799999999999997">
       <c r="B19" t="s">
         <v>40</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -1649,10 +1649,10 @@
         <v>2</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" t="s">
         <v>33</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F20" t="s">
         <v>70</v>
@@ -1675,10 +1675,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="34.799999999999997">
       <c r="B21" t="s">
         <v>39</v>
       </c>
@@ -1701,21 +1701,21 @@
         <v>6</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="34.799999999999997">
       <c r="B22" t="s">
         <v>36</v>
       </c>
       <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" t="s">
         <v>139</v>
       </c>
-      <c r="D22" t="s">
-        <v>140</v>
-      </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -1724,10 +1724,10 @@
         <v>4</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="34.799999999999997">
       <c r="B23" t="s">
         <v>77</v>
       </c>
@@ -1750,10 +1750,10 @@
         <v>2</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1773,24 +1773,24 @@
         <v>3</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="34.799999999999997">
       <c r="B25" t="s">
         <v>38</v>
       </c>
       <c r="C25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" t="s">
         <v>142</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>143</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" t="s">
-        <v>145</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -1799,24 +1799,24 @@
         <v>2</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="69.599999999999994">
       <c r="B26" t="s">
         <v>38</v>
       </c>
       <c r="C26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" t="s">
         <v>149</v>
       </c>
-      <c r="D26" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>150</v>
-      </c>
-      <c r="F26" t="s">
-        <v>151</v>
       </c>
       <c r="G26">
         <v>7</v>
@@ -1825,10 +1825,10 @@
         <v>5</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="34.799999999999997">
       <c r="B27" s="9" t="s">
         <v>65</v>
       </c>
@@ -1852,10 +1852,10 @@
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="52.2">
       <c r="B28" t="s">
         <v>87</v>
       </c>
@@ -1866,10 +1866,10 @@
         <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28">
         <v>7</v>
@@ -1878,10 +1878,10 @@
         <v>6</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="34.799999999999997">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -1904,24 +1904,24 @@
         <v>3</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="34.799999999999997">
       <c r="B30" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="F30" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="G30" s="9">
         <v>5</v>
@@ -1930,10 +1930,10 @@
         <v>4</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31" t="s">
         <v>36</v>
       </c>
@@ -1956,21 +1956,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="34.799999999999997">
       <c r="B32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" t="s">
         <v>153</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>154</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>155</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>156</v>
-      </c>
-      <c r="F32" t="s">
-        <v>157</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -1979,7 +1979,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/evaluation_Dataset.xlsx
+++ b/dataset/evaluation_Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883EFE31-3D6C-401C-9DDB-241814894EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC67A9D-6219-413D-8E5A-6A2CC2752637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="708" yWindow="1416" windowWidth="21600" windowHeight="11232" xr2:uid="{B3F3BC1B-72CB-4EE0-91D9-385962C7A5B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3F3BC1B-72CB-4EE0-91D9-385962C7A5B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,10 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SV : baseQuorum, _quroms[target][functionSelector]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SV : balancesOf[src], allowance[src][msg.sender], balancesOf[dst]
 LV : wad</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -726,6 +722,11 @@
   <si>
     <t>SV : actionBuilders
 LV : index, actionBuilder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : baseQuorum, _quroms[target][functionSelector]
+LV : target, functionSelector</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,7 +1174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7D6AF4-6C19-43AE-82FD-51AF84114A54}">
   <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -1260,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -1291,7 +1292,7 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1317,16 +1318,16 @@
         <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1335,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="34.799999999999997">
@@ -1361,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="34.799999999999997">
@@ -1466,10 +1467,10 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="34.799999999999997">
       <c r="B13" t="s">
         <v>41</v>
       </c>
@@ -1492,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="34.799999999999997">
@@ -1509,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1518,7 +1519,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -1544,7 +1545,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -1552,7 +1553,7 @@
         <v>58</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>59</v>
@@ -1571,7 +1572,7 @@
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="34.799999999999997">
@@ -1579,16 +1580,16 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" t="s">
         <v>133</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>134</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>135</v>
-      </c>
-      <c r="F17" t="s">
-        <v>136</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1597,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="34.799999999999997">
@@ -1614,7 +1615,7 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -1623,7 +1624,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="34.799999999999997">
@@ -1640,7 +1641,7 @@
         <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -1649,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -1663,7 +1664,7 @@
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F20" t="s">
         <v>70</v>
@@ -1675,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="34.799999999999997">
@@ -1701,7 +1702,7 @@
         <v>6</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="34.799999999999997">
@@ -1709,13 +1710,13 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" t="s">
         <v>138</v>
       </c>
-      <c r="D22" t="s">
-        <v>139</v>
-      </c>
       <c r="F22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -1724,7 +1725,7 @@
         <v>4</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="34.799999999999997">
@@ -1750,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -1764,7 +1765,7 @@
         <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1773,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="34.799999999999997">
@@ -1781,16 +1782,16 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" t="s">
         <v>141</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>142</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>143</v>
-      </c>
-      <c r="F25" t="s">
-        <v>144</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -1799,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="69.599999999999994">
@@ -1807,16 +1808,16 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" t="s">
         <v>148</v>
       </c>
-      <c r="D26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>149</v>
-      </c>
-      <c r="F26" t="s">
-        <v>150</v>
       </c>
       <c r="G26">
         <v>7</v>
@@ -1825,7 +1826,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="34.799999999999997">
@@ -1852,7 +1853,7 @@
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="52.2">
@@ -1866,10 +1867,10 @@
         <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28">
         <v>7</v>
@@ -1878,7 +1879,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="34.799999999999997">
@@ -1904,24 +1905,24 @@
         <v>3</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="34.799999999999997">
       <c r="B30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="F30" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="G30" s="9">
         <v>5</v>
@@ -1930,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="2:10">
@@ -1958,19 +1959,19 @@
     </row>
     <row r="32" spans="2:10" ht="34.799999999999997">
       <c r="B32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" t="s">
         <v>152</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>153</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>154</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>155</v>
-      </c>
-      <c r="F32" t="s">
-        <v>156</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -1979,7 +1980,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/evaluation_Dataset.xlsx
+++ b/dataset/evaluation_Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC67A9D-6219-413D-8E5A-6A2CC2752637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AD9603-1F66-45C2-BCB3-1E039396784C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3F3BC1B-72CB-4EE0-91D9-385962C7A5B8}"/>
+    <workbookView xWindow="-27030" yWindow="1650" windowWidth="21600" windowHeight="11235" xr2:uid="{B3F3BC1B-72CB-4EE0-91D9-385962C7A5B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="159">
   <si>
     <t>.sol File Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,18 +376,6 @@
   </si>
   <si>
     <t>235-247</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21kb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QANX.sol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QANX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -542,14 +530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>535-557 (function call : 519-532)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GV : block.timestamp
 SV : info.lastInteractionSecond, info.remainingVestingSeconds, info.remainingPayout</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -602,27 +582,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OptimisitcRewards.sol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OptimisitcRewards</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>proposeRewards</t>
-  </si>
-  <si>
-    <t>55-72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>75-89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GV : block.timestamp
-SV : proposalTime, challengePeriod</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -666,11 +626,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SV : allowance[from][msg.sender], balanceOf[from]
-LV : value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SV : _tokens
 LV : tokenId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -710,11 +665,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GV : block.timestamp
-SV : _locks[account].tokenAmount, _locks[account].hardLockUntil, _locks[account].softLockUntil, _locks[account].lastUnlock, _locks[account].unlockPerSec, _balances[account]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SV : firstWinningNumber, lastWinningNumber, ticketNumbers[ticketIndex], tickets.length
 LV : ticketIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -727,6 +677,11 @@
   <si>
     <t>SV : baseQuorum, _quroms[target][functionSelector]
 LV : target, functionSelector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : allowance[from][msg.sender], balanceOf[from]
+LV : from, to, value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,7 +689,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1172,18 +1127,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7D6AF4-6C19-43AE-82FD-51AF84114A54}">
-  <dimension ref="B2:J32"/>
+  <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="10" max="10" width="102.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>31</v>
       </c>
@@ -1200,19 +1155,19 @@
         <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="30.6" customHeight="1">
+    </row>
+    <row r="3" spans="2:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -1235,10 +1190,10 @@
         <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="34.799999999999997">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -1261,10 +1216,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
@@ -1287,18 +1242,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="80.400000000000006" customHeight="1">
+    <row r="6" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -1310,24 +1265,24 @@
         <v>7</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="43.2" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1336,10 +1291,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="34.799999999999997">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>36</v>
       </c>
@@ -1362,10 +1317,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="34.799999999999997">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -1376,7 +1331,7 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1388,10 +1343,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="34.799999999999997">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>40</v>
       </c>
@@ -1414,10 +1369,10 @@
         <v>3</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="34.799999999999997">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>39</v>
       </c>
@@ -1440,10 +1395,10 @@
         <v>4</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="34.799999999999997">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
@@ -1467,10 +1422,10 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="34.799999999999997">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>41</v>
       </c>
@@ -1493,10 +1448,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="34.799999999999997">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>38</v>
       </c>
@@ -1510,7 +1465,7 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1519,10 +1474,10 @@
         <v>3</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>57</v>
       </c>
@@ -1545,15 +1500,15 @@
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>59</v>
@@ -1572,24 +1527,24 @@
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="34.799999999999997">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1598,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="34.799999999999997">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>62</v>
       </c>
@@ -1615,7 +1570,7 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -1624,10 +1579,10 @@
         <v>3</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="34.799999999999997">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>40</v>
       </c>
@@ -1641,7 +1596,7 @@
         <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -1650,10 +1605,10 @@
         <v>2</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>33</v>
       </c>
@@ -1664,7 +1619,7 @@
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
         <v>70</v>
@@ -1676,10 +1631,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="34.799999999999997">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>39</v>
       </c>
@@ -1702,21 +1657,21 @@
         <v>6</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="34.799999999999997">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F22" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -1725,10 +1680,10 @@
         <v>4</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="34.799999999999997">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>77</v>
       </c>
@@ -1751,10 +1706,10 @@
         <v>2</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -1765,7 +1720,7 @@
         <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1774,213 +1729,161 @@
         <v>3</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="34.799999999999997">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>38</v>
       </c>
       <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="26" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="9">
+        <v>3</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B28" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="9">
+        <v>5</v>
+      </c>
+      <c r="H28" s="9">
+        <v>4</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
         <v>141</v>
       </c>
-      <c r="E25" t="s">
+      <c r="C30" t="s">
         <v>142</v>
       </c>
-      <c r="F25" t="s">
+      <c r="D30" t="s">
         <v>143</v>
       </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
+      <c r="E30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
         <v>2</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="69.599999999999994">
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26">
-        <v>7</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="34.799999999999997">
-      <c r="B27" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" s="9">
-        <v>3</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="52.2">
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28">
-        <v>7</v>
-      </c>
-      <c r="H28">
-        <v>6</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="34.799999999999997">
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="34.799999999999997">
-      <c r="B30" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="G30" s="9">
-        <v>5</v>
-      </c>
-      <c r="H30" s="9">
-        <v>4</v>
-      </c>
       <c r="J30" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="34.799999999999997">
-      <c r="B32" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" t="s">
-        <v>153</v>
-      </c>
-      <c r="E32" t="s">
-        <v>154</v>
-      </c>
-      <c r="F32" t="s">
-        <v>155</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/evaluation_Dataset.xlsx
+++ b/dataset/evaluation_Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AD9603-1F66-45C2-BCB3-1E039396784C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1B3178-EE19-41ED-B2BD-6EAEEB3EE080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27030" yWindow="1650" windowWidth="21600" windowHeight="11235" xr2:uid="{B3F3BC1B-72CB-4EE0-91D9-385962C7A5B8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3F3BC1B-72CB-4EE0-91D9-385962C7A5B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="171">
   <si>
     <t>.sol File Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,11 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SV : nextLockedStakeIDMap[_stakerAddress], tailLockedStakeIDMap[_stakerAddress], headLockedStakeIDMap[_stakerAddress], weightedStakes[_stakerAddress], totalWeightedATIDStaked, unweightedStakes[_stakerAddress], totalUnweightedATIDStaked
-LV : _ATIDamount, _stakeWeight, _lockedUntil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>viewFeePercentage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,21 +445,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SV : allowed[_from][msg.sender], balances[_from], balances[_to]
-LV : _amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GV : block.timestamp
-SV : claimedOnce[user], startTime, locktime, claimable[user]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SV : balancesOf[src], allowance[src][msg.sender], balancesOf[dst]
-LV : wad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>72-83 (function call : 46-47,48-50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,15 +458,6 @@
   </si>
   <si>
     <t>DeltaNeutralPancakeWorker02.sol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SV : reinvestPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SV : allownace[src][spender], balancesOf[from], balancesOf[to] 
-LV : amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -516,11 +487,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SV : _balances[sender], _balances[recipient]
-LV : amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">SV; roundId, latestRoundDataShouldRevert, entry.updatedAt </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -631,11 +597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SV : _totalSupply, _balances[account] 
-LV : amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ATIDStaking.sol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -682,6 +643,97 @@
   <si>
     <t>SV : allowance[from][msg.sender], balanceOf[from]
 LV : from, to, value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OptimisticGrants.sol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OptimisiticGrants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>configureGrant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62-79(modifier 24-27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.2kb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HubPool.sol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HubPool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907-923</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_allocateLpAndProtocolFees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : protocolFeeCapturePct, pooledTokens[l1Token].undistributedLpFees, pooledTokens[l1Token].utilizedReserves,  unclaimedAccumulatedProtocolFees[l1Token]
+LV : l1Token, bundleLpFees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : grants[_owner].amount
+LV : _owner, _amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : _totalSupply, _balances[account] 
+LV : amount, account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : nextLockedStakeIDMap[_stakerAddress], tailLockedStakeIDMap[_stakerAddress], headLockedStakeIDMap[_stakerAddress], weightedStakes[_stakerAddress], totalWeightedATIDStaked, unweightedStakes[_stakerAddress], totalUnweightedATIDStaked
+LV : _stakerAddress, _ATIDamount, _stakeWeight, _lockedUntil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : allowed[_from][msg.sender], balances[_from], balances[_to]
+LV : _amount, _from, _to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GV : block.timestamp
+SV : claimedOnce[user], startTime, locktime, claimable[user]
+LV : user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : balancesOf[src], allowance[src][msg.sender], balancesOf[dst]
+LV : wad, src, dst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : wNative, cake, baseToken, reinvestPath.length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : allownace[src][spender], balancesOf[from], balancesOf[to] 
+LV : amount, src, dst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : _balances[sender], _balances[recipient]
+LV : amount, sender, recipient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV : depositsOf[_account][0].amount, depositsOf[_account][1].amount, depositsOf[_account][2].amount
+LV : _account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +741,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,22 +759,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -759,7 +795,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,16 +817,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1127,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7D6AF4-6C19-43AE-82FD-51AF84114A54}">
-  <dimension ref="B2:J30"/>
+  <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1210,13 +1237,13 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
@@ -1247,7 +1274,7 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1259,13 +1286,13 @@
         <v>16</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>7</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -1273,16 +1300,16 @@
         <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1291,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1317,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1331,7 +1358,7 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1343,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1363,16 +1390,16 @@
         <v>30</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>39</v>
       </c>
@@ -1389,13 +1416,13 @@
         <v>26</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>4</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1422,7 +1449,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1448,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1465,16 +1492,16 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
@@ -1500,34 +1527,34 @@
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8" t="s">
-        <v>111</v>
+      <c r="G16" s="6">
+        <v>4</v>
+      </c>
+      <c r="H16" s="6">
+        <v>4</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1535,16 +1562,16 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1553,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1570,16 +1597,16 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1596,7 +1623,7 @@
         <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -1605,7 +1632,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
@@ -1619,7 +1646,7 @@
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F20" t="s">
         <v>70</v>
@@ -1631,259 +1658,314 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
         <v>77</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>76</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>78</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>79</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>80</v>
       </c>
-      <c r="G23">
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25">
         <v>3</v>
       </c>
-      <c r="H23">
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="6">
+        <v>3</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B30" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="6">
+        <v>5</v>
+      </c>
+      <c r="H30" s="6">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
         <v>2</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25">
-        <v>7</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="9">
-        <v>3</v>
-      </c>
-      <c r="H26" s="9">
-        <v>0</v>
-      </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27">
-        <v>4</v>
-      </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B28" s="9" t="s">
+      <c r="J32" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G28" s="9">
-        <v>5</v>
-      </c>
-      <c r="H28" s="9">
-        <v>4</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/evaluation_Dataset.xlsx
+++ b/dataset/evaluation_Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1B3178-EE19-41ED-B2BD-6EAEEB3EE080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16506FE-0B10-4151-B606-88307164ACD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3F3BC1B-72CB-4EE0-91D9-385962C7A5B8}"/>
+    <workbookView xWindow="1140" yWindow="1428" windowWidth="21600" windowHeight="11232" xr2:uid="{B3F3BC1B-72CB-4EE0-91D9-385962C7A5B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="172">
   <si>
     <t>.sol File Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -735,13 +735,16 @@
     <t>SV : depositsOf[_account][0].amount, depositsOf[_account][1].amount, depositsOf[_account][2].amount
 LV : _account</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_getReleasedAmount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1157,15 +1160,15 @@
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="10" max="10" width="102.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>31</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" ht="30.6" customHeight="1">
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" ht="34.799999999999997">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10">
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" ht="80.400000000000006" customHeight="1">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" ht="43.2" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="34.799999999999997">
       <c r="B8" t="s">
         <v>36</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="34.799999999999997">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" ht="34.799999999999997">
       <c r="B10" t="s">
         <v>40</v>
       </c>
@@ -1399,7 +1402,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" ht="52.2">
       <c r="B11" t="s">
         <v>39</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" ht="34.799999999999997">
       <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="34.799999999999997">
       <c r="B13" t="s">
         <v>41</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" ht="34.799999999999997">
       <c r="B14" t="s">
         <v>38</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10">
       <c r="B15" t="s">
         <v>57</v>
       </c>
@@ -1530,7 +1533,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10">
       <c r="B16" s="6" t="s">
         <v>58</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="34.799999999999997">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="34.799999999999997">
       <c r="B18" t="s">
         <v>62</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="34.799999999999997">
       <c r="B19" t="s">
         <v>40</v>
       </c>
@@ -1635,7 +1638,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10">
       <c r="B20" t="s">
         <v>33</v>
       </c>
@@ -1661,7 +1664,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="52.2">
       <c r="B21" t="s">
         <v>155</v>
       </c>
@@ -1687,7 +1690,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="34.799999999999997">
       <c r="B22" t="s">
         <v>39</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="34.799999999999997">
       <c r="B23" t="s">
         <v>36</v>
       </c>
@@ -1723,6 +1726,9 @@
       <c r="D23" t="s">
         <v>126</v>
       </c>
+      <c r="E23" t="s">
+        <v>171</v>
+      </c>
       <c r="F23" t="s">
         <v>128</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="34.799999999999997">
       <c r="B24" t="s">
         <v>77</v>
       </c>
@@ -1762,7 +1768,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10">
       <c r="B25" t="s">
         <v>39</v>
       </c>
@@ -1785,7 +1791,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="34.799999999999997">
       <c r="B26" t="s">
         <v>39</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="69.599999999999994">
       <c r="B27" t="s">
         <v>38</v>
       </c>
@@ -1837,7 +1843,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="34.799999999999997">
       <c r="B28" s="6" t="s">
         <v>65</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="34.799999999999997">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="34.799999999999997">
       <c r="B30" s="6" t="s">
         <v>142</v>
       </c>
@@ -1916,7 +1922,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="34.799999999999997">
       <c r="B31" t="s">
         <v>36</v>
       </c>
@@ -1942,7 +1948,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="34.799999999999997">
       <c r="B32" t="s">
         <v>134</v>
       </c>

--- a/dataset/evaluation_Dataset.xlsx
+++ b/dataset/evaluation_Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16506FE-0B10-4151-B606-88307164ACD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82D4445-B5BD-4F62-AFA7-4C22A42A3FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1428" windowWidth="21600" windowHeight="11232" xr2:uid="{B3F3BC1B-72CB-4EE0-91D9-385962C7A5B8}"/>
+    <workbookView xWindow="1140" yWindow="1152" windowWidth="21600" windowHeight="11232" xr2:uid="{B3F3BC1B-72CB-4EE0-91D9-385962C7A5B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="174">
   <si>
     <t>.sol File Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,10 +293,6 @@
   </si>
   <si>
     <t>11kb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GovStakingSotrage.sol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -738,6 +734,17 @@
   </si>
   <si>
     <t>_getReleasedAmount</t>
+  </si>
+  <si>
+    <t>BitBookStake.sol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MockChainlinkOracle</t>
+  </si>
+  <si>
+    <t>GovStakingStorage.sol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1159,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7D6AF4-6C19-43AE-82FD-51AF84114A54}">
   <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1185,16 +1192,16 @@
         <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="30.6" customHeight="1">
@@ -1220,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="34.799999999999997">
@@ -1246,7 +1253,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -1277,13 +1284,13 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -1295,7 +1302,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="43.2" customHeight="1">
@@ -1303,16 +1310,16 @@
         <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1321,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="34.799999999999997">
@@ -1347,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="34.799999999999997">
@@ -1355,13 +1362,13 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1373,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="34.799999999999997">
@@ -1399,7 +1406,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="52.2">
@@ -1425,7 +1432,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="34.799999999999997">
@@ -1452,7 +1459,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="34.799999999999997">
@@ -1478,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="34.799999999999997">
@@ -1495,7 +1502,7 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1504,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -1530,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -1538,7 +1545,7 @@
         <v>58</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>59</v>
@@ -1557,7 +1564,7 @@
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="34.799999999999997">
@@ -1565,16 +1572,16 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
         <v>120</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>121</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>122</v>
-      </c>
-      <c r="F17" t="s">
-        <v>123</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1583,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="34.799999999999997">
@@ -1600,7 +1607,7 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -1609,7 +1616,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="34.799999999999997">
@@ -1617,16 +1624,16 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" t="s">
         <v>66</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>67</v>
       </c>
-      <c r="E19" t="s">
-        <v>68</v>
-      </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -1635,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -1643,16 +1650,16 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" t="s">
         <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" t="s">
-        <v>70</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1661,24 +1668,24 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="52.2">
       <c r="B21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" t="s">
         <v>155</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>156</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" t="s">
         <v>157</v>
-      </c>
-      <c r="E21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F21" t="s">
-        <v>158</v>
       </c>
       <c r="G21">
         <v>6</v>
@@ -1687,7 +1694,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="34.799999999999997">
@@ -1695,16 +1702,16 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
         <v>72</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>73</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>74</v>
-      </c>
-      <c r="F22" t="s">
-        <v>75</v>
       </c>
       <c r="G22">
         <v>7</v>
@@ -1713,7 +1720,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="34.799999999999997">
@@ -1721,16 +1728,16 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" t="s">
         <v>125</v>
       </c>
-      <c r="D23" t="s">
-        <v>126</v>
-      </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -1739,24 +1746,24 @@
         <v>4</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="34.799999999999997">
       <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
         <v>77</v>
       </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>78</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>79</v>
-      </c>
-      <c r="F24" t="s">
-        <v>80</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -1765,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -1773,13 +1780,16 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -1788,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="34.799999999999997">
@@ -1796,16 +1806,16 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" t="s">
         <v>151</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>152</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" t="s">
-        <v>154</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1814,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="69.599999999999994">
@@ -1822,16 +1832,16 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
         <v>130</v>
       </c>
-      <c r="D27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>131</v>
-      </c>
-      <c r="F27" t="s">
-        <v>132</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -1840,7 +1850,7 @@
         <v>5</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="34.799999999999997">
@@ -1848,16 +1858,16 @@
         <v>65</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="G28" s="6">
         <v>3</v>
@@ -1867,7 +1877,7 @@
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="34.799999999999997">
@@ -1875,16 +1885,16 @@
         <v>58</v>
       </c>
       <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
         <v>87</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>88</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>89</v>
-      </c>
-      <c r="F29" t="s">
-        <v>90</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -1893,24 +1903,24 @@
         <v>3</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="34.799999999999997">
       <c r="B30" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="G30" s="6">
         <v>5</v>
@@ -1919,7 +1929,7 @@
         <v>4</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="34.799999999999997">
@@ -1927,16 +1937,16 @@
         <v>36</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" t="s">
         <v>92</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>93</v>
-      </c>
-      <c r="F31" t="s">
-        <v>94</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -1945,24 +1955,24 @@
         <v>3</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="34.799999999999997">
       <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
         <v>134</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>135</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>136</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>137</v>
-      </c>
-      <c r="F32" t="s">
-        <v>138</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -1971,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
